--- a/questionnaires/representativity.xlsx
+++ b/questionnaires/representativity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Country</t>
   </si>
@@ -162,13 +162,70 @@
   </si>
   <si>
     <t>Index of representativity (between 0 and 100, as a rule of thumb, &gt;50 indicates a representativity issue; formula: (mean weight)^2 / (n * mean weight^2))</t>
+  </si>
+  <si>
+    <t>quotas URL</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_9A1q4vyQCBUqnlk</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_9Wt11o3HDZ2YVym</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_01J9niuruKZJDEi</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_3WUI1L5FgEqJrN4</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_02uibrdpLtSCOCW</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_9pr4LdbFZ8DjyB0</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_07KudCp2056Qg2G</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_bBqhJyGMyPKCMzc</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_aa8zIThugucSCWi</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_dg6dhCoMsO7viDA</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_4NSn3izWhCCMy4C</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_eWdA8JHRbZ7RIgu</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_575zDiWmASUXFTU</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_2shrz7xK2E8I4uy</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_73wzPC2ZxXEm0su</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_5bgS4vQyTHXHl4i</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_8jZR47gKLcFsImy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +237,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,15 +279,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,6 +1061,65 @@
       </c>
       <c r="U17" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U18" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/representativity.xlsx
+++ b/questionnaires/representativity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C654667E-9338-2144-98A5-C05289D30235}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="11805"/>
+    <workbookView xWindow="2300" yWindow="-17480" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>Country</t>
   </si>
@@ -216,12 +217,27 @@
   </si>
   <si>
     <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_8jZR47gKLcFsImy</t>
+  </si>
+  <si>
+    <t>Lack non-college educated</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Lack non-college educated lower-bound</t>
+  </si>
+  <si>
+    <t>Lack non-college educated upper-bound</t>
+  </si>
+  <si>
+    <t>? (1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -570,22 +586,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -718,7 +734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -783,7 +799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -794,7 +810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -835,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -873,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -896,7 +912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -919,17 +935,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -949,7 +965,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -960,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -989,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1006,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1020,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1043,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1063,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -1120,6 +1136,84 @@
       </c>
       <c r="U18" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>68</v>
+      </c>
+      <c r="U19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/representativity.xlsx
+++ b/questionnaires/representativity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C654667E-9338-2144-98A5-C05289D30235}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F743DED-1FDC-D647-A540-727B1430E3A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="-17480" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="-17300" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>Country</t>
   </si>
@@ -232,6 +232,75 @@
   </si>
   <si>
     <t>? (1)</t>
+  </si>
+  <si>
+    <t>5-20 p.p.</t>
+  </si>
+  <si>
+    <t>1-24pp.</t>
+  </si>
+  <si>
+    <t>12pp</t>
+  </si>
+  <si>
+    <t>2pp</t>
+  </si>
+  <si>
+    <t>1pp</t>
+  </si>
+  <si>
+    <t>16pp</t>
+  </si>
+  <si>
+    <t>22pp</t>
+  </si>
+  <si>
+    <t>58pp</t>
+  </si>
+  <si>
+    <t>17pp</t>
+  </si>
+  <si>
+    <t>32pp</t>
+  </si>
+  <si>
+    <t>23pp</t>
+  </si>
+  <si>
+    <t>49pp</t>
+  </si>
+  <si>
+    <t>44pp</t>
+  </si>
+  <si>
+    <t>62pp</t>
+  </si>
+  <si>
+    <t>42pp</t>
+  </si>
+  <si>
+    <t>3-21pp</t>
+  </si>
+  <si>
+    <t>42pp-50pp</t>
+  </si>
+  <si>
+    <t>78-80pp</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>t'</t>
+  </si>
+  <si>
+    <t>c bis</t>
+  </si>
+  <si>
+    <t>t' bis</t>
+  </si>
+  <si>
+    <t>0-18</t>
   </si>
 </sst>
 </file>
@@ -587,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -939,280 +1008,498 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" t="s">
+        <v>85</v>
+      </c>
+      <c r="U9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>87</v>
+      </c>
+      <c r="B10">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>36</v>
+      </c>
+      <c r="H10">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <v>77</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>83</v>
+      </c>
+      <c r="L10">
+        <v>63</v>
+      </c>
+      <c r="M10">
+        <v>71</v>
+      </c>
+      <c r="N10">
+        <v>67</v>
+      </c>
+      <c r="O10">
+        <v>64</v>
+      </c>
+      <c r="P10">
+        <v>64</v>
+      </c>
+      <c r="Q10">
+        <v>72</v>
+      </c>
+      <c r="R10">
+        <v>90</v>
+      </c>
+      <c r="S10">
+        <v>55</v>
+      </c>
+      <c r="T10">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B11">
-        <v>400</v>
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>53</v>
+      </c>
+      <c r="I11">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>33</v>
+      </c>
+      <c r="K11">
+        <v>51</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>200</v>
+        <v>22</v>
+      </c>
+      <c r="N11">
+        <v>49</v>
       </c>
       <c r="O11">
-        <v>1000</v>
+        <v>43</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
       </c>
       <c r="Q11">
-        <v>200</v>
-      </c>
-      <c r="U11">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>12</v>
+      </c>
+      <c r="S11">
+        <v>13</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>71</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="O12">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>69</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="N13">
+        <v>67</v>
+      </c>
+      <c r="O13">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
+        <v>400</v>
+      </c>
+      <c r="M15">
+        <v>200</v>
+      </c>
+      <c r="O15">
+        <v>1000</v>
+      </c>
+      <c r="Q15">
+        <v>200</v>
+      </c>
+      <c r="U15">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>1</v>
-      </c>
-      <c r="T17" s="2">
-        <v>1</v>
-      </c>
-      <c r="U17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G22" t="s">
         <v>50</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H22" t="s">
         <v>51</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I22" t="s">
         <v>52</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J22" t="s">
         <v>53</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K22" t="s">
         <v>54</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L22" t="s">
         <v>55</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M22" t="s">
         <v>56</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N22" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" t="s">
+      <c r="O22" s="4"/>
+      <c r="P22" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q22" t="s">
         <v>59</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R22" t="s">
         <v>60</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S22" t="s">
         <v>61</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T22" t="s">
         <v>62</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>65</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O23" t="s">
         <v>65</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
         <v>68</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
         <v>68</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
     </row>

--- a/questionnaires/representativity.xlsx
+++ b/questionnaires/representativity.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F743DED-1FDC-D647-A540-727B1430E3A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="-17300" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="-17300" windowWidth="25600" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>Country</t>
   </si>
@@ -102,12 +101,6 @@
     <t>Total completed responses</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>1988&gt;done</t>
-  </si>
-  <si>
     <t>Lack young</t>
   </si>
   <si>
@@ -129,12 +122,6 @@
     <t>1 (lack women)</t>
   </si>
   <si>
-    <t>1904&gt;done</t>
-  </si>
-  <si>
-    <t>1850&gt;done?</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -301,12 +288,21 @@
   </si>
   <si>
     <t>0-18</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>close?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -341,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +347,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,13 +376,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -655,22 +665,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,467 +745,434 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1415</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1900</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2">
+      <c r="D3">
+        <v>2013</v>
+      </c>
+      <c r="E3">
+        <v>2006</v>
+      </c>
+      <c r="F3">
+        <v>2006</v>
+      </c>
+      <c r="G3">
         <v>1958</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>1891</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>1624</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>1886</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>1701</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2">
+      <c r="L3">
+        <v>1988</v>
+      </c>
+      <c r="M3">
         <v>1757</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>1652</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="O3">
+        <v>2010</v>
+      </c>
+      <c r="P3">
+        <v>1850</v>
+      </c>
+      <c r="Q3">
+        <v>1383</v>
+      </c>
+      <c r="R3">
+        <v>1904</v>
+      </c>
+      <c r="S3">
+        <v>1999</v>
+      </c>
+      <c r="T3">
+        <v>1668</v>
+      </c>
+      <c r="U3">
+        <v>1353</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>95</v>
+      </c>
+      <c r="E4">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>96</v>
+      </c>
+      <c r="G4">
+        <v>92</v>
+      </c>
+      <c r="H4">
+        <v>91</v>
+      </c>
+      <c r="I4">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>89</v>
+      </c>
+      <c r="K4">
+        <v>66</v>
+      </c>
+      <c r="L4">
+        <v>95</v>
+      </c>
+      <c r="M4">
+        <v>38</v>
+      </c>
+      <c r="N4">
+        <v>65</v>
+      </c>
+      <c r="O4">
+        <v>59</v>
+      </c>
+      <c r="P4">
+        <v>83</v>
+      </c>
+      <c r="Q4">
+        <v>22</v>
+      </c>
+      <c r="R4">
+        <v>96</v>
+      </c>
+      <c r="S4">
+        <v>99</v>
+      </c>
+      <c r="T4">
+        <v>74</v>
+      </c>
+      <c r="U4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="Q2">
-        <v>1383</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2">
-        <v>1668</v>
-      </c>
-      <c r="U2">
-        <v>1353</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>43</v>
-      </c>
-      <c r="C3">
-        <v>91</v>
-      </c>
-      <c r="D3">
-        <v>95</v>
-      </c>
-      <c r="E3">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" t="s">
         <v>61</v>
       </c>
-      <c r="F3">
-        <v>96</v>
-      </c>
-      <c r="G3">
-        <v>92</v>
-      </c>
-      <c r="H3">
-        <v>91</v>
-      </c>
-      <c r="I3">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>44</v>
+      </c>
+      <c r="E11">
         <v>42</v>
       </c>
-      <c r="J3">
-        <v>89</v>
-      </c>
-      <c r="K3">
-        <v>66</v>
-      </c>
-      <c r="L3">
-        <v>95</v>
-      </c>
-      <c r="M3">
-        <v>38</v>
-      </c>
-      <c r="N3">
-        <v>65</v>
-      </c>
-      <c r="O3">
-        <v>59</v>
-      </c>
-      <c r="P3">
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <v>75</v>
+      </c>
+      <c r="I11">
+        <v>77</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
         <v>83</v>
       </c>
-      <c r="Q3">
-        <v>22</v>
-      </c>
-      <c r="R3">
-        <v>96</v>
-      </c>
-      <c r="S3">
-        <v>99</v>
-      </c>
-      <c r="T3">
-        <v>74</v>
-      </c>
-      <c r="U3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="L11">
+        <v>63</v>
+      </c>
+      <c r="M11">
         <v>71</v>
       </c>
-      <c r="E9" t="s">
+      <c r="N11">
+        <v>67</v>
+      </c>
+      <c r="O11">
+        <v>64</v>
+      </c>
+      <c r="P11">
+        <v>64</v>
+      </c>
+      <c r="Q11">
         <v>72</v>
       </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>91</v>
-      </c>
-      <c r="O9" t="s">
-        <v>84</v>
-      </c>
-      <c r="P9" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R9" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" t="s">
-        <v>83</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="R11">
+        <v>90</v>
+      </c>
+      <c r="S11">
+        <v>55</v>
+      </c>
+      <c r="T11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>85</v>
-      </c>
-      <c r="U9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10">
-        <v>58</v>
-      </c>
-      <c r="C10">
-        <v>58</v>
-      </c>
-      <c r="D10">
-        <v>44</v>
-      </c>
-      <c r="E10">
-        <v>42</v>
-      </c>
-      <c r="F10">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>36</v>
-      </c>
-      <c r="H10">
-        <v>75</v>
-      </c>
-      <c r="I10">
-        <v>77</v>
-      </c>
-      <c r="J10">
-        <v>50</v>
-      </c>
-      <c r="K10">
-        <v>83</v>
-      </c>
-      <c r="L10">
-        <v>63</v>
-      </c>
-      <c r="M10">
-        <v>71</v>
-      </c>
-      <c r="N10">
-        <v>67</v>
-      </c>
-      <c r="O10">
-        <v>64</v>
-      </c>
-      <c r="P10">
-        <v>64</v>
-      </c>
-      <c r="Q10">
-        <v>72</v>
-      </c>
-      <c r="R10">
-        <v>90</v>
-      </c>
-      <c r="S10">
-        <v>55</v>
-      </c>
-      <c r="T10">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11">
-        <v>38</v>
-      </c>
-      <c r="C11">
-        <v>34</v>
-      </c>
-      <c r="D11">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <v>31</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>53</v>
-      </c>
-      <c r="I11">
-        <v>19</v>
-      </c>
-      <c r="J11">
-        <v>33</v>
-      </c>
-      <c r="K11">
-        <v>51</v>
-      </c>
-      <c r="L11">
-        <v>40</v>
-      </c>
-      <c r="M11">
-        <v>22</v>
-      </c>
-      <c r="N11">
-        <v>49</v>
-      </c>
-      <c r="O11">
-        <v>43</v>
-      </c>
-      <c r="P11">
-        <v>20</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
-      </c>
-      <c r="R11">
-        <v>12</v>
-      </c>
-      <c r="S11">
-        <v>13</v>
-      </c>
-      <c r="T11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>89</v>
       </c>
       <c r="B12">
         <v>74</v>
@@ -1210,301 +1187,528 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>53</v>
+      </c>
+      <c r="I13">
+        <v>19</v>
+      </c>
+      <c r="J13">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>51</v>
+      </c>
+      <c r="L13">
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <v>49</v>
+      </c>
+      <c r="O13">
+        <v>43</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>12</v>
+      </c>
+      <c r="S13">
+        <v>13</v>
+      </c>
+      <c r="T13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14">
         <v>69</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>70</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>67</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15">
+        <f>ROUND(MAX(0, B11*B$3/(B13+15) - 2000), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:U15" si="0">ROUND(MAX(0, C11*C$3/(C13+15) - 2000), 0)</f>
+        <v>249</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1678</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1372</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>1383</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>1983</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>4347</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>1927</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>2206</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <f>ROUND(MAX(0, B12*B$3/(B14+15) - 2000), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:U16" si="1">ROUND(MAX(0, C12*C$3/(C14+15) - 2000), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>400</v>
       </c>
-      <c r="M15">
+      <c r="M17">
         <v>200</v>
       </c>
-      <c r="O15">
+      <c r="O17">
         <v>1000</v>
       </c>
-      <c r="Q15">
+      <c r="Q17">
         <v>200</v>
       </c>
-      <c r="U15">
+      <c r="U17">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1</v>
-      </c>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
-      <c r="U21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
+      <c r="I24" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" t="s">
+      <c r="J24" t="s">
         <v>49</v>
       </c>
-      <c r="G22" t="s">
+      <c r="K24" t="s">
         <v>50</v>
       </c>
-      <c r="H22" t="s">
+      <c r="L24" t="s">
         <v>51</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M24" t="s">
         <v>52</v>
       </c>
-      <c r="J22" t="s">
+      <c r="N24" t="s">
         <v>53</v>
       </c>
-      <c r="K22" t="s">
+      <c r="O24" s="4"/>
+      <c r="P24" t="s">
         <v>54</v>
       </c>
-      <c r="L22" t="s">
+      <c r="Q24" t="s">
         <v>55</v>
       </c>
-      <c r="M22" t="s">
+      <c r="R24" t="s">
         <v>56</v>
       </c>
-      <c r="N22" t="s">
+      <c r="S24" t="s">
         <v>57</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" t="s">
+      <c r="T24" t="s">
         <v>58</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="U24" t="s">
         <v>59</v>
       </c>
-      <c r="R22" t="s">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="S22" t="s">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="T22" t="s">
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>64</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>64</v>
+      </c>
+      <c r="U25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="U22" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23" t="s">
-        <v>68</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23" t="s">
-        <v>68</v>
-      </c>
-      <c r="U23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:X3">
+  <conditionalFormatting sqref="B4:X4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1516,7 +1720,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:U3">
+  <conditionalFormatting sqref="B4:U4">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1528,7 +1732,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2 G2:K2 M2:N2 Q2 T2:U2">
+  <conditionalFormatting sqref="B3:C3 G3:K3 M3:N3 Q3 T3:U3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/questionnaires/representativity.xlsx
+++ b/questionnaires/representativity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>close?</t>
+  </si>
+  <si>
+    <t>bis Extra sample needed to rebalance college education within 15 p.p.</t>
+  </si>
+  <si>
+    <t>Extra sample needed to rebalance college education exactly (i.e. not within 15 p.p. but within 0 p.p.)</t>
+  </si>
+  <si>
+    <t>bis Proportion of Non-college needed in the rest of the sample to rebalance college education exactly</t>
   </si>
 </sst>
 </file>
@@ -666,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1346,14 +1355,10 @@
         <f t="shared" si="0"/>
         <v>2206</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B16">
         <f>ROUND(MAX(0, B12*B$3/(B14+15) - 2000), 0)</f>
@@ -1363,75 +1368,11 @@
         <f t="shared" ref="C16:U16" si="1">ROUND(MAX(0, C12*C$3/(C14+15) - 2000), 0)</f>
         <v>0</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1705,6 +1646,104 @@
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28">
+        <f>IF(B15=0,ROUND(MAX(0, B11*B$3/B13 - 2000), 0),"")</f>
+        <v>160</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ref="C28:U28" si="2">IF(C15=0,ROUND(MAX(0, C11*C$3/C13 - 2000), 0),"")</f>
+        <v/>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>858</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>259</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29">
+        <f>IF(B16=0,-ROUND((B12*B$3/B14-2000)/(2000-B$3),2),"")</f>
+        <v>0.82</v>
+      </c>
+      <c r="C29">
+        <f>IF(C16=0,-ROUND((C12*C$3/C14-2000)/(2000-C$3),2),"")</f>
+        <v>0.73</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="D29:O29" si="3">IF(N16=0,-ROUND((N12*N$3/N14-2000)/(2000-N$3),2),"")</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/representativity.xlsx
+++ b/questionnaires/representativity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -206,21 +206,9 @@
     <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_8jZR47gKLcFsImy</t>
   </si>
   <si>
-    <t>Lack non-college educated</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>Lack non-college educated lower-bound</t>
-  </si>
-  <si>
-    <t>Lack non-college educated upper-bound</t>
-  </si>
-  <si>
-    <t>? (1)</t>
-  </si>
-  <si>
     <t>5-20 p.p.</t>
   </si>
   <si>
@@ -306,6 +294,15 @@
   </si>
   <si>
     <t>bis Proportion of Non-college needed in the rest of the sample to rebalance college education exactly</t>
+  </si>
+  <si>
+    <t>EN-speaking: Lack non-college, optimistic estimation</t>
+  </si>
+  <si>
+    <t>EN-speaking: Lack non-college, pessimistic estimation</t>
+  </si>
+  <si>
+    <t>Lack non-college educated (by more than 15 p.p.)</t>
   </si>
 </sst>
 </file>
@@ -677,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,7 +753,7 @@
     </row>
     <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -768,16 +765,16 @@
         <v>1</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O2" s="5">
         <v>1</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="S2" s="5">
         <v>1</v>
@@ -1057,69 +1054,69 @@
         <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="G10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E10" t="s">
+      <c r="I10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G10" t="s">
+      <c r="K10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="N10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="Q10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="R10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="T10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="U10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>58</v>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>74</v>
@@ -1198,7 +1195,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B13">
         <v>38</v>
@@ -1260,7 +1257,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1284,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:U15" si="0">ROUND(MAX(0, C11*C$3/(C13+15) - 2000), 0)</f>
+        <f t="shared" ref="C15:T15" si="0">ROUND(MAX(0, C11*C$3/(C13+15) - 2000), 0)</f>
         <v>249</v>
       </c>
       <c r="D15">
@@ -1358,14 +1355,14 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <f>ROUND(MAX(0, B12*B$3/(B14+15) - 2000), 0)</f>
         <v>0</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:U16" si="1">ROUND(MAX(0, C12*C$3/(C14+15) - 2000), 0)</f>
+        <f t="shared" ref="C16:O16" si="1">ROUND(MAX(0, C12*C$3/(C14+15) - 2000), 0)</f>
         <v>0</v>
       </c>
       <c r="N16">
@@ -1572,13 +1569,13 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1602,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -1613,22 +1610,22 @@
       <c r="Q25">
         <v>1</v>
       </c>
-      <c r="R25" t="s">
-        <v>64</v>
+      <c r="R25">
+        <v>1</v>
       </c>
       <c r="S25">
         <v>1</v>
       </c>
-      <c r="T25" t="s">
-        <v>64</v>
+      <c r="T25">
+        <v>1</v>
       </c>
       <c r="U25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1645,19 +1642,19 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B28">
         <f>IF(B15=0,ROUND(MAX(0, B11*B$3/B13 - 2000), 0),"")</f>
         <v>160</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ref="C28:U28" si="2">IF(C15=0,ROUND(MAX(0, C11*C$3/C13 - 2000), 0),"")</f>
+        <f t="shared" ref="C28:T28" si="2">IF(C15=0,ROUND(MAX(0, C11*C$3/C13 - 2000), 0),"")</f>
         <v/>
       </c>
       <c r="D28">
@@ -1731,7 +1728,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B29">
         <f>IF(B16=0,-ROUND((B12*B$3/B14-2000)/(2000-B$3),2),"")</f>
@@ -1742,7 +1739,7 @@
         <v>0.73</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="D29:O29" si="3">IF(N16=0,-ROUND((N12*N$3/N14-2000)/(2000-N$3),2),"")</f>
+        <f t="shared" ref="N29" si="3">IF(N16=0,-ROUND((N12*N$3/N14-2000)/(2000-N$3),2),"")</f>
         <v>1</v>
       </c>
     </row>

--- a/questionnaires/representativity.xlsx
+++ b/questionnaires/representativity.xlsx
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/questionnaires/representativity.xlsx
+++ b/questionnaires/representativity.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161CC84E-AF17-0344-81CE-BDFA3E472613}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="-17300" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -308,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -671,22 +678,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>84</v>
       </c>
@@ -780,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -848,7 +855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -913,7 +920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -924,7 +931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -965,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1003,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1026,7 +1033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1049,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1114,7 +1121,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1134,7 +1141,7 @@
         <v>32</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>75</v>
@@ -1176,7 +1183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -1193,7 +1200,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1255,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1272,7 +1279,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1298,7 +1305,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -1353,7 +1360,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -1374,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1394,7 +1401,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1405,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1451,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1508,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
@@ -1567,7 +1574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
@@ -1623,7 +1630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>91</v>
       </c>
@@ -1640,12 +1647,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1726,7 +1733,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>89</v>
       </c>

--- a/questionnaires/representativity.xlsx
+++ b/questionnaires/representativity.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161CC84E-AF17-0344-81CE-BDFA3E472613}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="10005" windowHeight="14475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -231,9 +230,6 @@
     <t>1pp</t>
   </si>
   <si>
-    <t>16pp</t>
-  </si>
-  <si>
     <t>22pp</t>
   </si>
   <si>
@@ -310,12 +306,15 @@
   </si>
   <si>
     <t>Lack non-college educated (by more than 15 p.p.)</t>
+  </si>
+  <si>
+    <t>20pp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -678,22 +677,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,36 +758,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="5">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="R2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -855,7 +855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -920,7 +920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -931,7 +931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1076,54 +1076,54 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="6" t="s">
+      <c r="Q10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="U10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11">
         <v>58</v>
@@ -1183,9 +1183,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12">
         <v>74</v>
@@ -1200,9 +1200,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>38</v>
@@ -1262,9 +1262,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1279,7 +1279,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1360,9 +1360,9 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16">
         <f>ROUND(MAX(0, B12*B$3/(B14+15) - 2000), 0)</f>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
@@ -1574,9 +1574,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -1630,9 +1630,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1647,14 +1647,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28">
         <f>IF(B15=0,ROUND(MAX(0, B11*B$3/B13 - 2000), 0),"")</f>
@@ -1733,9 +1733,9 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29">
         <f>IF(B16=0,-ROUND((B12*B$3/B14-2000)/(2000-B$3),2),"")</f>

--- a/questionnaires/representativity.xlsx
+++ b/questionnaires/representativity.xlsx
@@ -266,18 +266,6 @@
     <t>78-80pp</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>t'</t>
-  </si>
-  <si>
-    <t>c bis</t>
-  </si>
-  <si>
-    <t>t' bis</t>
-  </si>
-  <si>
     <t>0-18</t>
   </si>
   <si>
@@ -309,6 +297,18 @@
   </si>
   <si>
     <t>20pp</t>
+  </si>
+  <si>
+    <t>College degrees - Sample (25-64)</t>
+  </si>
+  <si>
+    <t>bis College degrees - Sample (25-64)</t>
+  </si>
+  <si>
+    <t>College degrees - Population (25-64)</t>
+  </si>
+  <si>
+    <t>bis College degrees - Population (25-64)</t>
   </si>
 </sst>
 </file>
@@ -681,8 +681,8 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
     </row>
     <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -772,16 +772,16 @@
         <v>1</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O2" s="5">
         <v>1</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S2" s="5">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>66</v>
@@ -1097,7 +1097,7 @@
         <v>71</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>75</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>58</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>74</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>38</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <f>ROUND(MAX(0, B12*B$3/(B14+15) - 2000), 0)</f>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1649,12 +1649,12 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <f>IF(B15=0,ROUND(MAX(0, B11*B$3/B13 - 2000), 0),"")</f>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <f>IF(B16=0,-ROUND((B12*B$3/B14-2000)/(2000-B$3),2),"")</f>
